--- a/data/raw/input-output-tables/sector-level/ind-com_total_requirement.xlsx
+++ b/data/raw/input-output-tables/sector-level/ind-com_total_requirement.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr autoCompressPictures="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView tabRatio="600"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" sheetId="1" r:id="rId3"/>
+    <sheet name="Table" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t xml:space="preserve">Total Requirements, Industry-by-Commodity - Sector</t>
   </si>
@@ -23,7 +31,10 @@
     <t xml:space="preserve">Bureau of Economic Analysis</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
+    <t xml:space="preserve">Legend / Footnotes:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note. Detail may not add to total due to rounding.</t>
   </si>
   <si>
     <t xml:space="preserve">Industries/Commodities</t>
@@ -80,6 +91,9 @@
     <t xml:space="preserve">Other</t>
   </si>
   <si>
+    <t xml:space="preserve">Code</t>
+  </si>
+  <si>
     <t xml:space="preserve">Industry Description</t>
   </si>
   <si>
@@ -135,1341 +149,1572 @@
   </si>
   <si>
     <t xml:space="preserve">Total industry output requirement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legend / Footnotes:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note. Detail may not add to total due to rounding.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
   <fonts count="9">
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <i/>
-      <vertAlign val="superscript"/>
-      <sz val="8"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="14"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="15"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="10"/>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="15"/>
-      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <bgColor indexed="12"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkGray">
-        <bgColor indexed="12"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000040"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
-    <border>
+  <borders count="2">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
       <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="9"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color rgb="FFFFFFFF"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellXfs count="8">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000040"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:T25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:T1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.43" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="60.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="38.25000000000001" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.299999999999999" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.100000000000001" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="30.450000000000003" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="46.05" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="31.8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="50.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="62.10000000000001" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="32.4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="32.550000000000004" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="53.85" bestFit="1" customWidth="1" collapsed="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="30.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="46.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="31.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="50.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="62.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="32.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="32.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="53.85"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="18.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="I6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="J6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="K6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="L6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="M6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="N6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="O6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="P6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="Q6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="R6" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
+      <c r="S6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="E7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="F7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="G7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="H7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="I7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="J7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="K7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="L7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="M7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="N7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="O7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="P7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="Q7" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="0">
+      <c r="R7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7" t="n">
         <v>1.3456288</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8" s="7" t="n">
         <v>0.0136573</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8" s="7" t="n">
         <v>0.0084924</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8" s="7" t="n">
         <v>0.0247882</v>
       </c>
-      <c r="G8" s="0">
+      <c r="G8" s="7" t="n">
         <v>0.1006191</v>
       </c>
-      <c r="H8" s="0">
+      <c r="H8" s="7" t="n">
         <v>0.0073587</v>
       </c>
-      <c r="I8" s="0">
+      <c r="I8" s="7" t="n">
         <v>0.0047598</v>
       </c>
-      <c r="J8" s="0">
+      <c r="J8" s="7" t="n">
         <v>0.0099522</v>
       </c>
-      <c r="K8" s="0">
+      <c r="K8" s="7" t="n">
         <v>0.0060192</v>
       </c>
-      <c r="L8" s="0">
+      <c r="L8" s="7" t="n">
         <v>0.0032946</v>
       </c>
-      <c r="M8" s="0">
+      <c r="M8" s="7" t="n">
         <v>0.0071492</v>
       </c>
-      <c r="N8" s="0">
+      <c r="N8" s="7" t="n">
         <v>0.0098839</v>
       </c>
-      <c r="O8" s="0">
+      <c r="O8" s="7" t="n">
         <v>0.0184269</v>
       </c>
-      <c r="P8" s="0">
+      <c r="P8" s="7" t="n">
         <v>0.0093689</v>
       </c>
-      <c r="Q8" s="0">
+      <c r="Q8" s="7" t="n">
         <v>0.0165593</v>
       </c>
-      <c r="R8" s="0">
+      <c r="R8" s="7" t="n">
         <v>0.0561203</v>
       </c>
-      <c r="S8" s="0">
+      <c r="S8" s="7" t="n">
         <v>0.0165752</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="0">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="7" t="n">
         <v>0.0283635</v>
       </c>
-      <c r="D9" s="0">
+      <c r="D9" s="7" t="n">
         <v>1.1224519</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9" s="7" t="n">
         <v>0.0419496</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9" s="7" t="n">
         <v>0.0368989</v>
       </c>
-      <c r="G9" s="0">
+      <c r="G9" s="7" t="n">
         <v>0.1135842</v>
       </c>
-      <c r="H9" s="0">
+      <c r="H9" s="7" t="n">
         <v>0.0086444</v>
       </c>
-      <c r="I9" s="0">
+      <c r="I9" s="7" t="n">
         <v>0.0055325</v>
       </c>
-      <c r="J9" s="0">
+      <c r="J9" s="7" t="n">
         <v>0.0122582</v>
       </c>
-      <c r="K9" s="0">
+      <c r="K9" s="7" t="n">
         <v>0.0081025</v>
       </c>
-      <c r="L9" s="0">
+      <c r="L9" s="7" t="n">
         <v>0.0041229</v>
       </c>
-      <c r="M9" s="0">
+      <c r="M9" s="7" t="n">
         <v>0.0081913</v>
       </c>
-      <c r="N9" s="0">
+      <c r="N9" s="7" t="n">
         <v>0.0123858</v>
       </c>
-      <c r="O9" s="0">
+      <c r="O9" s="7" t="n">
         <v>0.0131278</v>
       </c>
-      <c r="P9" s="0">
+      <c r="P9" s="7" t="n">
         <v>0.012136</v>
       </c>
-      <c r="Q9" s="0">
+      <c r="Q9" s="7" t="n">
         <v>0.0223172</v>
       </c>
-      <c r="R9" s="0">
+      <c r="R9" s="7" t="n">
         <v>0.0610093</v>
       </c>
-      <c r="S9" s="0">
+      <c r="S9" s="7" t="n">
         <v>0.0222785</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="0">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="7" t="n">
         <v>0.0256655</v>
       </c>
-      <c r="D10" s="0">
+      <c r="D10" s="7" t="n">
         <v>0.0203876</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10" s="7" t="n">
         <v>0.7888485</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10" s="7" t="n">
         <v>0.0107324</v>
       </c>
-      <c r="G10" s="0">
+      <c r="G10" s="7" t="n">
         <v>0.0186492</v>
       </c>
-      <c r="H10" s="0">
+      <c r="H10" s="7" t="n">
         <v>0.0082935</v>
       </c>
-      <c r="I10" s="0">
+      <c r="I10" s="7" t="n">
         <v>0.0141825</v>
       </c>
-      <c r="J10" s="0">
+      <c r="J10" s="7" t="n">
         <v>0.0125583</v>
       </c>
-      <c r="K10" s="0">
+      <c r="K10" s="7" t="n">
         <v>0.0098114</v>
       </c>
-      <c r="L10" s="0">
+      <c r="L10" s="7" t="n">
         <v>0.0076662</v>
       </c>
-      <c r="M10" s="0">
+      <c r="M10" s="7" t="n">
         <v>0.0061567</v>
       </c>
-      <c r="N10" s="0">
+      <c r="N10" s="7" t="n">
         <v>0.0103629</v>
       </c>
-      <c r="O10" s="0">
+      <c r="O10" s="7" t="n">
         <v>0.0191138</v>
       </c>
-      <c r="P10" s="0">
+      <c r="P10" s="7" t="n">
         <v>0.0103131</v>
       </c>
-      <c r="Q10" s="0">
+      <c r="Q10" s="7" t="n">
         <v>0.0146646</v>
       </c>
-      <c r="R10" s="0">
+      <c r="R10" s="7" t="n">
         <v>0.0150357</v>
       </c>
-      <c r="S10" s="0">
+      <c r="S10" s="7" t="n">
         <v>0.0131363</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="0">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="7" t="n">
         <v>0.0091386</v>
       </c>
-      <c r="D11" s="0">
+      <c r="D11" s="7" t="n">
         <v>0.0137237</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11" s="7" t="n">
         <v>0.0163026</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11" s="7" t="n">
         <v>1.0046535</v>
       </c>
-      <c r="G11" s="0">
+      <c r="G11" s="7" t="n">
         <v>0.0093589</v>
       </c>
-      <c r="H11" s="0">
+      <c r="H11" s="7" t="n">
         <v>0.0067084</v>
       </c>
-      <c r="I11" s="0">
+      <c r="I11" s="7" t="n">
         <v>0.0086792</v>
       </c>
-      <c r="J11" s="0">
+      <c r="J11" s="7" t="n">
         <v>0.0119529</v>
       </c>
-      <c r="K11" s="0">
+      <c r="K11" s="7" t="n">
         <v>0.0062196</v>
       </c>
-      <c r="L11" s="0">
+      <c r="L11" s="7" t="n">
         <v>0.0212501</v>
       </c>
-      <c r="M11" s="0">
+      <c r="M11" s="7" t="n">
         <v>0.0046845</v>
       </c>
-      <c r="N11" s="0">
+      <c r="N11" s="7" t="n">
         <v>0.0089366</v>
       </c>
-      <c r="O11" s="0">
+      <c r="O11" s="7" t="n">
         <v>0.0105051</v>
       </c>
-      <c r="P11" s="0">
+      <c r="P11" s="7" t="n">
         <v>0.0108902</v>
       </c>
-      <c r="Q11" s="0">
+      <c r="Q11" s="7" t="n">
         <v>0.0308746</v>
       </c>
-      <c r="R11" s="0">
+      <c r="R11" s="7" t="n">
         <v>0.0178717</v>
       </c>
-      <c r="S11" s="0">
+      <c r="S11" s="7" t="n">
         <v>0.0309033</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="0">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="7" t="n">
         <v>0.3214007</v>
       </c>
-      <c r="D12" s="0">
+      <c r="D12" s="7" t="n">
         <v>0.1986593</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12" s="7" t="n">
         <v>0.1150703</v>
       </c>
-      <c r="F12" s="0">
+      <c r="F12" s="7" t="n">
         <v>0.3544382</v>
       </c>
-      <c r="G12" s="0">
+      <c r="G12" s="7" t="n">
         <v>1.5172223</v>
       </c>
-      <c r="H12" s="0">
+      <c r="H12" s="7" t="n">
         <v>0.10613</v>
       </c>
-      <c r="I12" s="0">
+      <c r="I12" s="7" t="n">
         <v>0.0609088</v>
       </c>
-      <c r="J12" s="0">
+      <c r="J12" s="7" t="n">
         <v>0.1440236</v>
       </c>
-      <c r="K12" s="0">
+      <c r="K12" s="7" t="n">
         <v>0.0844541</v>
       </c>
-      <c r="L12" s="0">
+      <c r="L12" s="7" t="n">
         <v>0.0444299</v>
       </c>
-      <c r="M12" s="0">
+      <c r="M12" s="7" t="n">
         <v>0.0961821</v>
       </c>
-      <c r="N12" s="0">
+      <c r="N12" s="7" t="n">
         <v>0.1376895</v>
       </c>
-      <c r="O12" s="0">
+      <c r="O12" s="7" t="n">
         <v>0.142554</v>
       </c>
-      <c r="P12" s="0">
+      <c r="P12" s="7" t="n">
         <v>0.1358347</v>
       </c>
-      <c r="Q12" s="0">
+      <c r="Q12" s="7" t="n">
         <v>0.2075268</v>
       </c>
-      <c r="R12" s="0">
+      <c r="R12" s="7" t="n">
         <v>0.8272669</v>
       </c>
-      <c r="S12" s="0">
+      <c r="S12" s="7" t="n">
         <v>0.2077093</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="0">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="7" t="n">
         <v>0.1412011</v>
       </c>
-      <c r="D13" s="0">
+      <c r="D13" s="7" t="n">
         <v>0.0574452</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13" s="7" t="n">
         <v>0.0319544</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13" s="7" t="n">
         <v>0.0909493</v>
       </c>
-      <c r="G13" s="0">
+      <c r="G13" s="7" t="n">
         <v>0.1338131</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13" s="7" t="n">
         <v>1.0449822</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13" s="7" t="n">
         <v>0.0251904</v>
       </c>
-      <c r="J13" s="0">
+      <c r="J13" s="7" t="n">
         <v>0.0394885</v>
       </c>
-      <c r="K13" s="0">
+      <c r="K13" s="7" t="n">
         <v>0.0303032</v>
       </c>
-      <c r="L13" s="0">
+      <c r="L13" s="7" t="n">
         <v>0.0141936</v>
       </c>
-      <c r="M13" s="0">
+      <c r="M13" s="7" t="n">
         <v>0.0276822</v>
       </c>
-      <c r="N13" s="0">
+      <c r="N13" s="7" t="n">
         <v>0.0391215</v>
       </c>
-      <c r="O13" s="0">
+      <c r="O13" s="7" t="n">
         <v>0.0386074</v>
       </c>
-      <c r="P13" s="0">
+      <c r="P13" s="7" t="n">
         <v>0.0341994</v>
       </c>
-      <c r="Q13" s="0">
+      <c r="Q13" s="7" t="n">
         <v>0.0500348</v>
       </c>
-      <c r="R13" s="0">
+      <c r="R13" s="7" t="n">
         <v>0.0880732</v>
       </c>
-      <c r="S13" s="0">
+      <c r="S13" s="7" t="n">
         <v>0.0500705</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="0">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="7" t="n">
         <v>0.0061941</v>
       </c>
-      <c r="D14" s="0">
+      <c r="D14" s="7" t="n">
         <v>0.0035661</v>
       </c>
-      <c r="E14" s="0">
+      <c r="E14" s="7" t="n">
         <v>0.0046804</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14" s="7" t="n">
         <v>0.0445092</v>
       </c>
-      <c r="G14" s="0">
+      <c r="G14" s="7" t="n">
         <v>0.0065197</v>
       </c>
-      <c r="H14" s="0">
+      <c r="H14" s="7" t="n">
         <v>0.0023071</v>
       </c>
-      <c r="I14" s="0">
+      <c r="I14" s="7" t="n">
         <v>1.0014342</v>
       </c>
-      <c r="J14" s="0">
+      <c r="J14" s="7" t="n">
         <v>0.012992</v>
       </c>
-      <c r="K14" s="0">
+      <c r="K14" s="7" t="n">
         <v>0.0016349</v>
       </c>
-      <c r="L14" s="0">
+      <c r="L14" s="7" t="n">
         <v>0.0029856</v>
       </c>
-      <c r="M14" s="0">
+      <c r="M14" s="7" t="n">
         <v>0.0026732</v>
       </c>
-      <c r="N14" s="0">
+      <c r="N14" s="7" t="n">
         <v>0.002076</v>
       </c>
-      <c r="O14" s="0">
+      <c r="O14" s="7" t="n">
         <v>0.008103</v>
       </c>
-      <c r="P14" s="0">
+      <c r="P14" s="7" t="n">
         <v>0.0088264</v>
       </c>
-      <c r="Q14" s="0">
+      <c r="Q14" s="7" t="n">
         <v>0.003108</v>
       </c>
-      <c r="R14" s="0">
+      <c r="R14" s="7" t="n">
         <v>0.0047149</v>
       </c>
-      <c r="S14" s="0">
+      <c r="S14" s="7" t="n">
         <v>0.0031049</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="0">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="7" t="n">
         <v>0.0679605</v>
       </c>
-      <c r="D15" s="0">
+      <c r="D15" s="7" t="n">
         <v>0.0461028</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15" s="7" t="n">
         <v>0.0543366</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15" s="7" t="n">
         <v>0.0434526</v>
       </c>
-      <c r="G15" s="0">
+      <c r="G15" s="7" t="n">
         <v>0.0664645</v>
       </c>
-      <c r="H15" s="0">
+      <c r="H15" s="7" t="n">
         <v>0.0701128</v>
       </c>
-      <c r="I15" s="0">
+      <c r="I15" s="7" t="n">
         <v>0.0558452</v>
       </c>
-      <c r="J15" s="0">
+      <c r="J15" s="7" t="n">
         <v>1.1227366</v>
       </c>
-      <c r="K15" s="0">
+      <c r="K15" s="7" t="n">
         <v>0.0209556</v>
       </c>
-      <c r="L15" s="0">
+      <c r="L15" s="7" t="n">
         <v>0.0161463</v>
       </c>
-      <c r="M15" s="0">
+      <c r="M15" s="7" t="n">
         <v>0.0234919</v>
       </c>
-      <c r="N15" s="0">
+      <c r="N15" s="7" t="n">
         <v>0.0271703</v>
       </c>
-      <c r="O15" s="0">
+      <c r="O15" s="7" t="n">
         <v>0.0271755</v>
       </c>
-      <c r="P15" s="0">
+      <c r="P15" s="7" t="n">
         <v>0.0193076</v>
       </c>
-      <c r="Q15" s="0">
+      <c r="Q15" s="7" t="n">
         <v>0.0404922</v>
       </c>
-      <c r="R15" s="0">
+      <c r="R15" s="7" t="n">
         <v>0.0511</v>
       </c>
-      <c r="S15" s="0">
+      <c r="S15" s="7" t="n">
         <v>0.0404649</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="0">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="7" t="n">
         <v>0.014703</v>
       </c>
-      <c r="D16" s="0">
+      <c r="D16" s="7" t="n">
         <v>0.0216913</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16" s="7" t="n">
         <v>0.0328241</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16" s="7" t="n">
         <v>0.0235523</v>
       </c>
-      <c r="G16" s="0">
+      <c r="G16" s="7" t="n">
         <v>0.0227182</v>
       </c>
-      <c r="H16" s="0">
+      <c r="H16" s="7" t="n">
         <v>0.0351992</v>
       </c>
-      <c r="I16" s="0">
+      <c r="I16" s="7" t="n">
         <v>0.0377382</v>
       </c>
-      <c r="J16" s="0">
+      <c r="J16" s="7" t="n">
         <v>0.0270873</v>
       </c>
-      <c r="K16" s="0">
+      <c r="K16" s="7" t="n">
         <v>1.1521329</v>
       </c>
-      <c r="L16" s="0">
+      <c r="L16" s="7" t="n">
         <v>0.0314488</v>
       </c>
-      <c r="M16" s="0">
+      <c r="M16" s="7" t="n">
         <v>0.1150711</v>
       </c>
-      <c r="N16" s="0">
+      <c r="N16" s="7" t="n">
         <v>0.0357386</v>
       </c>
-      <c r="O16" s="0">
+      <c r="O16" s="7" t="n">
         <v>0.0479348</v>
       </c>
-      <c r="P16" s="0">
+      <c r="P16" s="7" t="n">
         <v>0.038245</v>
       </c>
-      <c r="Q16" s="0">
+      <c r="Q16" s="7" t="n">
         <v>0.059866</v>
       </c>
-      <c r="R16" s="0">
+      <c r="R16" s="7" t="n">
         <v>0.0409315</v>
       </c>
-      <c r="S16" s="0">
+      <c r="S16" s="7" t="n">
         <v>0.0599193</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="0">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="7" t="n">
         <v>0.0986076</v>
       </c>
-      <c r="D17" s="0">
+      <c r="D17" s="7" t="n">
         <v>0.1223303</v>
       </c>
-      <c r="E17" s="0">
+      <c r="E17" s="7" t="n">
         <v>0.0780676</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17" s="7" t="n">
         <v>0.1004636</v>
       </c>
-      <c r="G17" s="0">
+      <c r="G17" s="7" t="n">
         <v>0.0965183</v>
       </c>
-      <c r="H17" s="0">
+      <c r="H17" s="7" t="n">
         <v>0.1726251</v>
       </c>
-      <c r="I17" s="0">
+      <c r="I17" s="7" t="n">
         <v>0.1857586</v>
       </c>
-      <c r="J17" s="0">
+      <c r="J17" s="7" t="n">
         <v>0.2006391</v>
       </c>
-      <c r="K17" s="0">
+      <c r="K17" s="7" t="n">
         <v>0.1301269</v>
       </c>
-      <c r="L17" s="0">
+      <c r="L17" s="7" t="n">
         <v>1.2696583</v>
       </c>
-      <c r="M17" s="0">
+      <c r="M17" s="7" t="n">
         <v>0.1330923</v>
       </c>
-      <c r="N17" s="0">
+      <c r="N17" s="7" t="n">
         <v>0.1640872</v>
       </c>
-      <c r="O17" s="0">
+      <c r="O17" s="7" t="n">
         <v>0.1946539</v>
       </c>
-      <c r="P17" s="0">
+      <c r="P17" s="7" t="n">
         <v>0.1904575</v>
       </c>
-      <c r="Q17" s="0">
+      <c r="Q17" s="7" t="n">
         <v>0.0849287</v>
       </c>
-      <c r="R17" s="0">
+      <c r="R17" s="7" t="n">
         <v>0.0954317</v>
       </c>
-      <c r="S17" s="0">
+      <c r="S17" s="7" t="n">
         <v>0.0849422</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="0">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="7" t="n">
         <v>0.0736038</v>
       </c>
-      <c r="D18" s="0">
+      <c r="D18" s="7" t="n">
         <v>0.1584395</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18" s="7" t="n">
         <v>0.105537</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18" s="7" t="n">
         <v>0.1199509</v>
       </c>
-      <c r="G18" s="0">
+      <c r="G18" s="7" t="n">
         <v>0.1144036</v>
       </c>
-      <c r="H18" s="0">
+      <c r="H18" s="7" t="n">
         <v>0.2123686</v>
       </c>
-      <c r="I18" s="0">
+      <c r="I18" s="7" t="n">
         <v>0.1508144</v>
       </c>
-      <c r="J18" s="0">
+      <c r="J18" s="7" t="n">
         <v>0.1267197</v>
       </c>
-      <c r="K18" s="0">
+      <c r="K18" s="7" t="n">
         <v>0.197556</v>
       </c>
-      <c r="L18" s="0">
+      <c r="L18" s="7" t="n">
         <v>0.1461409</v>
       </c>
-      <c r="M18" s="0">
+      <c r="M18" s="7" t="n">
         <v>1.1103372</v>
       </c>
-      <c r="N18" s="0">
+      <c r="N18" s="7" t="n">
         <v>0.1556253</v>
       </c>
-      <c r="O18" s="0">
+      <c r="O18" s="7" t="n">
         <v>0.1630772</v>
       </c>
-      <c r="P18" s="0">
+      <c r="P18" s="7" t="n">
         <v>0.1385787</v>
       </c>
-      <c r="Q18" s="0">
+      <c r="Q18" s="7" t="n">
         <v>0.1488285</v>
       </c>
-      <c r="R18" s="0">
+      <c r="R18" s="7" t="n">
         <v>0.2366729</v>
       </c>
-      <c r="S18" s="0">
+      <c r="S18" s="7" t="n">
         <v>0.148914</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="0">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="7" t="n">
         <v>0.0003514</v>
       </c>
-      <c r="D19" s="0">
+      <c r="D19" s="7" t="n">
         <v>0.0002289</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19" s="7" t="n">
         <v>0.002347</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19" s="7" t="n">
         <v>0.0002744</v>
       </c>
-      <c r="G19" s="0">
+      <c r="G19" s="7" t="n">
         <v>0.0003283</v>
       </c>
-      <c r="H19" s="0">
+      <c r="H19" s="7" t="n">
         <v>0.0008832</v>
       </c>
-      <c r="I19" s="0">
+      <c r="I19" s="7" t="n">
         <v>0.0013958</v>
       </c>
-      <c r="J19" s="0">
+      <c r="J19" s="7" t="n">
         <v>0.0007034</v>
       </c>
-      <c r="K19" s="0">
+      <c r="K19" s="7" t="n">
         <v>0.0002819</v>
       </c>
-      <c r="L19" s="0">
+      <c r="L19" s="7" t="n">
         <v>0.0003264</v>
       </c>
-      <c r="M19" s="0">
+      <c r="M19" s="7" t="n">
         <v>0.0003443</v>
       </c>
-      <c r="N19" s="0">
+      <c r="N19" s="7" t="n">
         <v>0.9027754</v>
       </c>
-      <c r="O19" s="0">
+      <c r="O19" s="7" t="n">
         <v>0.0032732</v>
       </c>
-      <c r="P19" s="0">
+      <c r="P19" s="7" t="n">
         <v>0.0036433</v>
       </c>
-      <c r="Q19" s="0">
+      <c r="Q19" s="7" t="n">
         <v>0.0085065</v>
       </c>
-      <c r="R19" s="0">
+      <c r="R19" s="7" t="n">
         <v>0.003761</v>
       </c>
-      <c r="S19" s="0">
+      <c r="S19" s="7" t="n">
         <v>0.0085187</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="0">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="7" t="n">
         <v>0.0077226</v>
       </c>
-      <c r="D20" s="0">
+      <c r="D20" s="7" t="n">
         <v>0.0076271</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E20" s="7" t="n">
         <v>0.0122475</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20" s="7" t="n">
         <v>0.0075333</v>
       </c>
-      <c r="G20" s="0">
+      <c r="G20" s="7" t="n">
         <v>0.0084348</v>
       </c>
-      <c r="H20" s="0">
+      <c r="H20" s="7" t="n">
         <v>0.0177862</v>
       </c>
-      <c r="I20" s="0">
+      <c r="I20" s="7" t="n">
         <v>0.0126493</v>
       </c>
-      <c r="J20" s="0">
+      <c r="J20" s="7" t="n">
         <v>0.017973</v>
       </c>
-      <c r="K20" s="0">
+      <c r="K20" s="7" t="n">
         <v>0.0333739</v>
       </c>
-      <c r="L20" s="0">
+      <c r="L20" s="7" t="n">
         <v>0.0227326</v>
       </c>
-      <c r="M20" s="0">
+      <c r="M20" s="7" t="n">
         <v>0.0242152</v>
       </c>
-      <c r="N20" s="0">
+      <c r="N20" s="7" t="n">
         <v>0.0335689</v>
       </c>
-      <c r="O20" s="0">
+      <c r="O20" s="7" t="n">
         <v>1.0187877</v>
       </c>
-      <c r="P20" s="0">
+      <c r="P20" s="7" t="n">
         <v>0.0131567</v>
       </c>
-      <c r="Q20" s="0">
+      <c r="Q20" s="7" t="n">
         <v>0.0185358</v>
       </c>
-      <c r="R20" s="0">
+      <c r="R20" s="7" t="n">
         <v>0.0152313</v>
       </c>
-      <c r="S20" s="0">
+      <c r="S20" s="7" t="n">
         <v>0.0185482</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="0">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="7" t="n">
         <v>0.0057357</v>
       </c>
-      <c r="D21" s="0">
+      <c r="D21" s="7" t="n">
         <v>0.0050594</v>
       </c>
-      <c r="E21" s="0">
+      <c r="E21" s="7" t="n">
         <v>0.0087438</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21" s="7" t="n">
         <v>0.0091791</v>
       </c>
-      <c r="G21" s="0">
+      <c r="G21" s="7" t="n">
         <v>0.0081763</v>
       </c>
-      <c r="H21" s="0">
+      <c r="H21" s="7" t="n">
         <v>0.0139377</v>
       </c>
-      <c r="I21" s="0">
+      <c r="I21" s="7" t="n">
         <v>0.0101485</v>
       </c>
-      <c r="J21" s="0">
+      <c r="J21" s="7" t="n">
         <v>0.016828</v>
       </c>
-      <c r="K21" s="0">
+      <c r="K21" s="7" t="n">
         <v>0.0083206</v>
       </c>
-      <c r="L21" s="0">
+      <c r="L21" s="7" t="n">
         <v>0.0107005</v>
       </c>
-      <c r="M21" s="0">
+      <c r="M21" s="7" t="n">
         <v>0.011867</v>
       </c>
-      <c r="N21" s="0">
+      <c r="N21" s="7" t="n">
         <v>0.0128237</v>
       </c>
-      <c r="O21" s="0">
+      <c r="O21" s="7" t="n">
         <v>0.0135456</v>
       </c>
-      <c r="P21" s="0">
+      <c r="P21" s="7" t="n">
         <v>1.0075282</v>
       </c>
-      <c r="Q21" s="0">
+      <c r="Q21" s="7" t="n">
         <v>0.0212659</v>
       </c>
-      <c r="R21" s="0">
+      <c r="R21" s="7" t="n">
         <v>0.0140803</v>
       </c>
-      <c r="S21" s="0">
+      <c r="S21" s="7" t="n">
         <v>0.0212907</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="0">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="7" t="n">
         <v>0.0258977</v>
       </c>
-      <c r="D22" s="0">
+      <c r="D22" s="7" t="n">
         <v>0.0169915</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22" s="7" t="n">
         <v>0.2742798</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22" s="7" t="n">
         <v>0.0135403</v>
       </c>
-      <c r="G22" s="0">
+      <c r="G22" s="7" t="n">
         <v>0.0223765</v>
       </c>
-      <c r="H22" s="0">
+      <c r="H22" s="7" t="n">
         <v>0.0236218</v>
       </c>
-      <c r="I22" s="0">
+      <c r="I22" s="7" t="n">
         <v>0.0213502</v>
       </c>
-      <c r="J22" s="0">
+      <c r="J22" s="7" t="n">
         <v>0.0584577</v>
       </c>
-      <c r="K22" s="0">
+      <c r="K22" s="7" t="n">
         <v>0.0152653</v>
       </c>
-      <c r="L22" s="0">
+      <c r="L22" s="7" t="n">
         <v>0.0243393</v>
       </c>
-      <c r="M22" s="0">
+      <c r="M22" s="7" t="n">
         <v>0.015276</v>
       </c>
-      <c r="N22" s="0">
+      <c r="N22" s="7" t="n">
         <v>0.1224752</v>
       </c>
-      <c r="O22" s="0">
+      <c r="O22" s="7" t="n">
         <v>0.0500046</v>
       </c>
-      <c r="P22" s="0">
+      <c r="P22" s="7" t="n">
         <v>0.035565</v>
       </c>
-      <c r="Q22" s="0">
+      <c r="Q22" s="7" t="n">
         <v>1.0171889</v>
       </c>
-      <c r="R22" s="0">
+      <c r="R22" s="7" t="n">
         <v>0.4385975</v>
       </c>
-      <c r="S22" s="0">
+      <c r="S22" s="7" t="n">
         <v>1.0186555</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="0">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="7" t="n">
         <v>2.1721746</v>
       </c>
-      <c r="D23" s="0">
+      <c r="D23" s="7" t="n">
         <v>1.808362</v>
       </c>
-      <c r="E23" s="0">
+      <c r="E23" s="7" t="n">
         <v>1.5756815</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23" s="7" t="n">
         <v>1.8849162</v>
       </c>
-      <c r="G23" s="0">
+      <c r="G23" s="7" t="n">
         <v>2.2391869</v>
       </c>
-      <c r="H23" s="0">
+      <c r="H23" s="7" t="n">
         <v>1.730959</v>
       </c>
-      <c r="I23" s="0">
+      <c r="I23" s="7" t="n">
         <v>1.5963877</v>
       </c>
-      <c r="J23" s="0">
+      <c r="J23" s="7" t="n">
         <v>1.8143706</v>
       </c>
-      <c r="K23" s="0">
+      <c r="K23" s="7" t="n">
         <v>1.7045577</v>
       </c>
-      <c r="L23" s="0">
+      <c r="L23" s="7" t="n">
         <v>1.619436</v>
       </c>
-      <c r="M23" s="0">
+      <c r="M23" s="7" t="n">
         <v>1.5864143</v>
       </c>
-      <c r="N23" s="0">
+      <c r="N23" s="7" t="n">
         <v>1.674721</v>
       </c>
-      <c r="O23" s="0">
+      <c r="O23" s="7" t="n">
         <v>1.7688906</v>
       </c>
-      <c r="P23" s="0">
+      <c r="P23" s="7" t="n">
         <v>1.6680507</v>
       </c>
-      <c r="Q23" s="0">
+      <c r="Q23" s="7" t="n">
         <v>1.7446978</v>
       </c>
-      <c r="R23" s="0">
+      <c r="R23" s="7" t="n">
         <v>1.965898</v>
       </c>
-      <c r="S23" s="0">
+      <c r="S23" s="7" t="n">
         <v>1.7450314</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="5">
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
-    <mergeCell ref="A4:S4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A24:T24"/>
-    <mergeCell ref="A25:T25"/>
+    <mergeCell ref="A4:T4"/>
+    <mergeCell ref="A5:T5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>